--- a/Code/R/RWithSQLServer/Example Data/ImportedData/AwardingGroup20.xlsx
+++ b/Code/R/RWithSQLServer/Example Data/ImportedData/AwardingGroup20.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ScholarshipName</t>
   </si>
@@ -31,15 +31,6 @@
   </si>
   <si>
     <t>ApplicantRanking</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>5000</t>
   </si>
 </sst>
 </file>
@@ -359,7 +350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D121"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -381,218 +374,218 @@
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>20000</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3">
+        <v>20000</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4">
+        <v>20000</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>20000</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+      <c r="D5">
         <v>4</v>
-      </c>
-      <c r="C5">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>20000</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="B7">
+        <v>20000</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
+      <c r="B8">
+        <v>20000</v>
       </c>
       <c r="C8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="B9">
+        <v>20000</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
+      <c r="B10">
+        <v>20000</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
+      <c r="B11">
+        <v>20000</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
+      <c r="B12">
+        <v>20000</v>
       </c>
       <c r="C12">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13">
+        <v>20000</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
+      <c r="B14">
+        <v>20000</v>
       </c>
       <c r="C14">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
+      <c r="B15">
+        <v>20000</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
+      <c r="B16">
+        <v>20000</v>
       </c>
       <c r="C16">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
+      <c r="B17">
+        <v>20000</v>
       </c>
       <c r="C17">
         <v>60</v>
@@ -605,1142 +598,1142 @@
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
+      <c r="B18">
+        <v>20000</v>
       </c>
       <c r="C18">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
+      <c r="B19">
+        <v>20000</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
+      <c r="B20">
+        <v>20000</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
+      <c r="B21">
+        <v>20000</v>
       </c>
       <c r="C21">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
+      <c r="B22">
+        <v>20000</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
+      <c r="B23">
+        <v>20000</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
+      <c r="B24">
+        <v>20000</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
-        <v>4</v>
+      <c r="B25">
+        <v>20000</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
+      <c r="B26">
+        <v>20000</v>
       </c>
       <c r="C26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
-        <v>4</v>
+      <c r="B27">
+        <v>20000</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
-        <v>4</v>
+      <c r="B28">
+        <v>20000</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
+      <c r="B29">
+        <v>20000</v>
       </c>
       <c r="C29">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" t="s">
-        <v>4</v>
+      <c r="B30">
+        <v>20000</v>
       </c>
       <c r="C30">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
+      <c r="B31">
+        <v>20000</v>
       </c>
       <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
         <v>82</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
+      <c r="B32">
+        <v>20000</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
+      <c r="B33">
+        <v>10000</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
+      <c r="B34">
+        <v>10000</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D34">
-        <v>88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
+      <c r="B35">
+        <v>10000</v>
       </c>
       <c r="C35">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D35">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
+      <c r="B36">
+        <v>10000</v>
       </c>
       <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>7</v>
-      </c>
-      <c r="D36">
-        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
+      <c r="B37">
+        <v>10000</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
+      <c r="B38">
+        <v>10000</v>
       </c>
       <c r="C38">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
+      <c r="B39">
+        <v>10000</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
+      <c r="B40">
+        <v>10000</v>
       </c>
       <c r="C40">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
+      <c r="B41">
+        <v>10000</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
+      <c r="B42">
+        <v>10000</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
+      <c r="B43">
+        <v>10000</v>
       </c>
       <c r="C43">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D43">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
+      <c r="B44">
+        <v>10000</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D44">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
+      <c r="B45">
+        <v>10000</v>
       </c>
       <c r="C45">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D45">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
+      <c r="B46">
+        <v>10000</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
+      <c r="B47">
+        <v>10000</v>
       </c>
       <c r="C47">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D47">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
+      <c r="B48">
+        <v>10000</v>
       </c>
       <c r="C48">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D48">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
+      <c r="B49">
+        <v>10000</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D49">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
+      <c r="B50">
+        <v>10000</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D50">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
+      <c r="B51">
+        <v>10000</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D51">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
+      <c r="B52">
+        <v>10000</v>
       </c>
       <c r="C52">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D52">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
+      <c r="B53">
+        <v>10000</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D53">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
+      <c r="B54">
+        <v>10000</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D54">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
+      <c r="B55">
+        <v>10000</v>
       </c>
       <c r="C55">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
+      <c r="B56">
+        <v>10000</v>
       </c>
       <c r="C56">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
+      <c r="B57">
+        <v>10000</v>
       </c>
       <c r="C57">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D57">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
+      <c r="B58">
+        <v>10000</v>
       </c>
       <c r="C58">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
+      <c r="B59">
+        <v>10000</v>
       </c>
       <c r="C59">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
+      <c r="B60">
+        <v>10000</v>
       </c>
       <c r="C60">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
+      <c r="B61">
+        <v>10000</v>
       </c>
       <c r="C61">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D61">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
+      <c r="B62">
+        <v>10000</v>
       </c>
       <c r="C62">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D62">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
+      <c r="B63">
+        <v>10000</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
+      <c r="B64">
+        <v>10000</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D64">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
+      <c r="B65">
+        <v>10000</v>
       </c>
       <c r="C65">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D65">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
+      <c r="B66">
+        <v>10000</v>
       </c>
       <c r="C66">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D66">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
+      <c r="B67">
+        <v>10000</v>
       </c>
       <c r="C67">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
+      <c r="B68">
+        <v>10000</v>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D68">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
+      <c r="B69">
+        <v>10000</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
+      <c r="B70">
+        <v>10000</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
+      <c r="B71">
+        <v>10000</v>
       </c>
       <c r="C71">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
+      <c r="B72">
+        <v>10000</v>
       </c>
       <c r="C72">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
+      <c r="B73">
+        <v>10000</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
+      <c r="B74">
+        <v>10000</v>
       </c>
       <c r="C74">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
+      <c r="B75">
+        <v>10000</v>
       </c>
       <c r="C75">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
+      <c r="B76">
+        <v>10000</v>
       </c>
       <c r="C76">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
-      <c r="B77" t="s">
-        <v>6</v>
+      <c r="B77">
+        <v>5000</v>
       </c>
       <c r="C77">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D77">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
-      <c r="B78" t="s">
-        <v>6</v>
+      <c r="B78">
+        <v>5000</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D78">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
-      <c r="B79" t="s">
-        <v>6</v>
+      <c r="B79">
+        <v>5000</v>
       </c>
       <c r="C79">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D79">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
+      <c r="B80">
+        <v>5000</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D80">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>5000</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81">
         <v>6</v>
-      </c>
-      <c r="C81">
-        <v>62</v>
-      </c>
-      <c r="D81">
-        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
-      <c r="B82" t="s">
-        <v>6</v>
+      <c r="B82">
+        <v>5000</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="B83" t="s">
-        <v>6</v>
+      <c r="B83">
+        <v>5000</v>
       </c>
       <c r="C83">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D83">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
-      <c r="B84" t="s">
-        <v>6</v>
+      <c r="B84">
+        <v>5000</v>
       </c>
       <c r="C84">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D84">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
-      <c r="B85" t="s">
-        <v>6</v>
+      <c r="B85">
+        <v>5000</v>
       </c>
       <c r="C85">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D85">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
-      <c r="B86" t="s">
-        <v>6</v>
+      <c r="B86">
+        <v>5000</v>
       </c>
       <c r="C86">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D86">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
-      <c r="B87" t="s">
-        <v>6</v>
+      <c r="B87">
+        <v>5000</v>
       </c>
       <c r="C87">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D87">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
-      <c r="B88" t="s">
-        <v>6</v>
+      <c r="B88">
+        <v>5000</v>
       </c>
       <c r="C88">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
-      <c r="B89" t="s">
-        <v>6</v>
+      <c r="B89">
+        <v>5000</v>
       </c>
       <c r="C89">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D89">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
+      <c r="B90">
+        <v>5000</v>
       </c>
       <c r="C90">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D90">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
+      <c r="B91">
+        <v>5000</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
-      <c r="B92" t="s">
-        <v>6</v>
+      <c r="B92">
+        <v>5000</v>
       </c>
       <c r="C92">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D92">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
-      <c r="B93" t="s">
-        <v>6</v>
+      <c r="B93">
+        <v>5000</v>
       </c>
       <c r="C93">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D93">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
-      <c r="B94" t="s">
-        <v>6</v>
+      <c r="B94">
+        <v>5000</v>
       </c>
       <c r="C94">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D94">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
-      <c r="B95" t="s">
-        <v>6</v>
+      <c r="B95">
+        <v>5000</v>
       </c>
       <c r="C95">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D95">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96">
+        <v>5000</v>
+      </c>
+      <c r="C96">
         <v>6</v>
       </c>
-      <c r="C96">
-        <v>40</v>
-      </c>
       <c r="D96">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
+      <c r="B97">
+        <v>5000</v>
       </c>
       <c r="C97">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D97">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
-      <c r="B98" t="s">
-        <v>6</v>
+      <c r="B98">
+        <v>5000</v>
       </c>
       <c r="C98">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D98">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
-      <c r="B99" t="s">
-        <v>6</v>
+      <c r="B99">
+        <v>5000</v>
       </c>
       <c r="C99">
         <v>88</v>
@@ -1753,308 +1746,308 @@
       <c r="A100">
         <v>1</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
+      <c r="B100">
+        <v>5000</v>
       </c>
       <c r="C100">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D100">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
+      <c r="B101">
+        <v>5000</v>
       </c>
       <c r="C101">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D101">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
-      <c r="B102" t="s">
-        <v>6</v>
+      <c r="B102">
+        <v>5000</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D102">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
+      <c r="B103">
+        <v>5000</v>
       </c>
       <c r="C103">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D103">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
+      <c r="B104">
+        <v>5000</v>
       </c>
       <c r="C104">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D104">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
-      <c r="B105" t="s">
-        <v>6</v>
+      <c r="B105">
+        <v>5000</v>
       </c>
       <c r="C105">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D105">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
-      <c r="B106" t="s">
-        <v>6</v>
+      <c r="B106">
+        <v>5000</v>
       </c>
       <c r="C106">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D106">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
-      <c r="B107" t="s">
-        <v>6</v>
+      <c r="B107">
+        <v>5000</v>
       </c>
       <c r="C107">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
-      <c r="B108" t="s">
-        <v>6</v>
+      <c r="B108">
+        <v>5000</v>
       </c>
       <c r="C108">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D108">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
-      <c r="B109" t="s">
-        <v>6</v>
+      <c r="B109">
+        <v>5000</v>
       </c>
       <c r="C109">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D109">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
-      <c r="B110" t="s">
-        <v>6</v>
+      <c r="B110">
+        <v>5000</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D110">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
-      <c r="B111" t="s">
-        <v>6</v>
+      <c r="B111">
+        <v>5000</v>
       </c>
       <c r="C111">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D111">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
-      <c r="B112" t="s">
-        <v>6</v>
+      <c r="B112">
+        <v>5000</v>
       </c>
       <c r="C112">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D112">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
-      <c r="B113" t="s">
-        <v>6</v>
+      <c r="B113">
+        <v>5000</v>
       </c>
       <c r="C113">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
-      <c r="B114" t="s">
-        <v>6</v>
+      <c r="B114">
+        <v>5000</v>
       </c>
       <c r="C114">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
-      <c r="B115" t="s">
-        <v>6</v>
+      <c r="B115">
+        <v>5000</v>
       </c>
       <c r="C115">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D115">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
-      <c r="B116" t="s">
-        <v>6</v>
+      <c r="B116">
+        <v>5000</v>
       </c>
       <c r="C116">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
-      <c r="B117" t="s">
-        <v>6</v>
+      <c r="B117">
+        <v>5000</v>
       </c>
       <c r="C117">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
-      <c r="B118" t="s">
-        <v>6</v>
+      <c r="B118">
+        <v>5000</v>
       </c>
       <c r="C118">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
-      <c r="B119" t="s">
-        <v>6</v>
+      <c r="B119">
+        <v>5000</v>
       </c>
       <c r="C119">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
-      <c r="B120" t="s">
-        <v>6</v>
+      <c r="B120">
+        <v>5000</v>
       </c>
       <c r="C120">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
-      <c r="B121" t="s">
-        <v>6</v>
+      <c r="B121">
+        <v>5000</v>
       </c>
       <c r="C121">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
